--- a/project/exp.xlsx
+++ b/project/exp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/didwhddks/Desktop/2023-NTHU-Parallel-Programming/project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E743A32B-5248-014B-B7CB-D91703437261}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C87A1F1-0B2F-C644-9573-21C2F1FC1B79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="17060" xr2:uid="{B4031528-6C7C-F24C-A0FA-E64244CB0D64}"/>
   </bookViews>
@@ -466,7 +466,7 @@
   <dimension ref="A1:O19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -482,7 +482,7 @@
         <v>5</v>
       </c>
       <c r="I1" s="3">
-        <v>3118010</v>
+        <v>7561300</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -540,19 +540,19 @@
       </c>
       <c r="L4" s="3">
         <f>I1/D3</f>
-        <v>16.051531531531531</v>
+        <v>38.925611325611328</v>
       </c>
       <c r="M4" s="3">
         <f>I1/D9</f>
-        <v>44.050079609173345</v>
+        <v>106.82321960123362</v>
       </c>
       <c r="N4" s="3">
         <f>I1/C14</f>
-        <v>39.268856043203158</v>
+        <v>95.228559626002493</v>
       </c>
       <c r="O4" s="3">
         <f>I1/C19</f>
-        <v>61.455089442688092</v>
+        <v>149.03107039521922</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -596,8 +596,8 @@
     </row>
     <row r="11" spans="1:15">
       <c r="H11">
-        <f>C14*100/D3</f>
-        <v>40.875984555984559</v>
+        <f>C19*100/D3</f>
+        <v>26.11912483912484</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -609,7 +609,7 @@
       </c>
       <c r="H12">
         <f>100-H11</f>
-        <v>59.124015444015441</v>
+        <v>73.880875160875163</v>
       </c>
     </row>
     <row r="13" spans="1:15">

--- a/project/exp.xlsx
+++ b/project/exp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/didwhddks/Desktop/2023-NTHU-Parallel-Programming/project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C87A1F1-0B2F-C644-9573-21C2F1FC1B79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0ACD3C9-23A3-4141-BBC6-4CF9884C3576}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="17060" xr2:uid="{B4031528-6C7C-F24C-A0FA-E64244CB0D64}"/>
   </bookViews>
@@ -466,7 +466,7 @@
   <dimension ref="A1:O19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>

--- a/project/exp.xlsx
+++ b/project/exp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/didwhddks/Desktop/2023-NTHU-Parallel-Programming/project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0ACD3C9-23A3-4141-BBC6-4CF9884C3576}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F141DEFB-F6D8-544A-8F04-63439827892A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="17060" xr2:uid="{B4031528-6C7C-F24C-A0FA-E64244CB0D64}"/>
   </bookViews>
@@ -466,7 +466,7 @@
   <dimension ref="A1:O19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -611,6 +611,10 @@
         <f>100-H11</f>
         <v>73.880875160875163</v>
       </c>
+      <c r="J12" s="3">
+        <f>I1/1000/60/60</f>
+        <v>2.1003611111111113</v>
+      </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" t="s">
